--- a/LKSBali2017/master data.xlsx
+++ b/LKSBali2017/master data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jurusan" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,11 +1572,12 @@
       <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="N4" s="1"/>
@@ -1601,9 +1602,12 @@
       <c r="G5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="5" t="str">
-        <f>CONCATENATE("insert into tabjadwal values('",C5,"','",D5,"','",E5,"','",F5,"','",G5,"')")</f>
-        <v>insert into tabjadwal values('E0001','01/19/2018 18:00:00','90','20','\soal\E0001.docx')</v>
+      <c r="H5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>CONCATENATE("insert into tabjadwal values('",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"')")</f>
+        <v>insert into tabjadwal values('E0001','01/19/2018 18:00:00','90','20','\soal\E0001.docx','K0002')</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1640,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P5" sqref="P5:P9"/>
     </sheetView>
   </sheetViews>
@@ -1673,33 +1677,30 @@
         <v>64</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="8" t="s">
         <v>76</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -1717,31 +1718,28 @@
       <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="E5" s="7" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" ref="F5:G9" si="0">"0"</f>
+        <v>0</v>
+      </c>
       <c r="G5" s="7" t="str">
-        <f t="shared" ref="G5:H9" si="0">"0"</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="7" t="str">
+      <c r="K5" s="7" t="str">
         <f>"01/19/2018  19:30:00"</f>
         <v>01/19/2018  19:30:00</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P5" s="7" t="str">
-        <f>CONCATENATE("insert into tabaktivitasujian values('",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"','",I5,"','",J5,"','",K5,"','",L5,"','",M5,"','",N5,"')")</f>
-        <v>insert into tabaktivitasujian values('00001','E0001','K0002','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
+        <f>CONCATENATE("insert into tabaktivitasujian values('",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"','",I5,"','",J5,"','",K5,"','",L5,"','",M5,"')")</f>
+        <v>insert into tabaktivitasujian values('00001','E0001','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1756,31 +1754,28 @@
       <c r="D6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>67</v>
+      <c r="E6" s="7" t="str">
+        <f t="shared" ref="E6:E9" si="2">"0"</f>
+        <v>0</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f t="shared" ref="F6:F9" si="2">"0"</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="str">
-        <f t="shared" ref="L6:L9" si="3">"01/19/2018  19:30:00"</f>
+      <c r="K6" s="7" t="str">
+        <f t="shared" ref="K6:K9" si="3">"01/19/2018  19:30:00"</f>
         <v>01/19/2018  19:30:00</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P6" s="7" t="str">
-        <f t="shared" ref="P6:P9" si="4">CONCATENATE("insert into tabaktivitasujian values('",C6,"','",D6,"','",E6,"','",F6,"','",G6,"','",H6,"','",I6,"','",J6,"','",K6,"','",L6,"','",M6,"','",N6,"')")</f>
-        <v>insert into tabaktivitasujian values('00002','E0001','K0002','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
+        <f t="shared" ref="P6:P9" si="4">CONCATENATE("insert into tabaktivitasujian values('",C6,"','",D6,"','",E6,"','",F6,"','",G6,"','",H6,"','",I6,"','",J6,"','",K6,"','",L6,"','",M6,"')")</f>
+        <v>insert into tabaktivitasujian values('00002','E0001','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1795,31 +1790,28 @@
       <c r="D7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>67</v>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="str">
+      <c r="K7" s="7" t="str">
         <f t="shared" si="3"/>
         <v>01/19/2018  19:30:00</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into tabaktivitasujian values('00003','E0001','K0002','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
+        <v>insert into tabaktivitasujian values('00003','E0001','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -1834,31 +1826,28 @@
       <c r="D8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>67</v>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="str">
+      <c r="K8" s="7" t="str">
         <f t="shared" si="3"/>
         <v>01/19/2018  19:30:00</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P8" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into tabaktivitasujian values('00004','E0001','K0002','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
+        <v>insert into tabaktivitasujian values('00004','E0001','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1873,31 +1862,28 @@
       <c r="D9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>67</v>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="7" t="str">
+      <c r="K9" s="7" t="str">
         <f t="shared" si="3"/>
         <v>01/19/2018  19:30:00</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P9" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>insert into tabaktivitasujian values('00005','E0001','K0002','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
+        <v>insert into tabaktivitasujian values('00005','E0001','0','0','0','','','','01/19/2018  19:30:00','Belum Ujian','')</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
